--- a/adm/completionsStatistik20160210.xlsx
+++ b/adm/completionsStatistik20160210.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="25120" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="8320" windowWidth="25800" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1834,12 +1834,6 @@
     <t>lqg136</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Accumulated frequency</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -1886,6 +1880,12 @@
   </si>
   <si>
     <t>Anslået beståelsesprocent</t>
+  </si>
+  <si>
+    <t>Akkumuleret histogram</t>
+  </si>
+  <si>
+    <t>Frekvens</t>
   </si>
 </sst>
 </file>
@@ -1976,6 +1976,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frekvens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2026,7 +2037,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]5100-B1-2E15Programmeringogprob'!$H$2:$H$14</c:f>
+              <c:f>Sheet1!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2049,25 +2060,25 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.0</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,6 +2087,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Akkumuleret histogram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2126,48 +2148,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]5100-B1-2E15Programmeringogprob'!$I$2:$I$14</c:f>
+              <c:f>Sheet1!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>211.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>173.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>149.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,11 +2204,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="904631248"/>
-        <c:axId val="904614800"/>
+        <c:axId val="927204480"/>
+        <c:axId val="927206528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="904631248"/>
+        <c:axId val="927204480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="904614800"/>
+        <c:crossAx val="927206528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="904614800"/>
+        <c:axId val="927206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="904631248"/>
+        <c:crossAx val="927204480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2793,10 +2815,10 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>594</v>
-      </c>
-      <c r="I1" t="s">
-        <v>595</v>
+        <v>611</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2816,26 +2838,26 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H2">
         <f>COUNTIF(D:D, G2 &amp; " /*")</f>
         <v>8</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I12" si="0">I3+H2</f>
-        <v>209</v>
+        <f>H2</f>
+        <v>8</v>
       </c>
       <c r="J2" s="2">
-        <f>I2/$I$2</f>
-        <v>1</v>
+        <f>I2/$I$14</f>
+        <v>3.8277511961722487E-2</v>
       </c>
       <c r="K2" s="2">
-        <f>I2/239</f>
-        <v>0.87447698744769875</v>
+        <f>I2/237</f>
+        <v>3.3755274261603373E-2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N2" s="5">
         <f>SUM(H4:H14)</f>
@@ -2859,26 +2881,26 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">COUNTIF(D:D, G3 &amp; " /*")</f>
+        <f t="shared" ref="H3:H14" si="0">COUNTIF(D:D, G3 &amp; " /*")</f>
         <v>3</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>201</v>
+        <f>I2+H3</f>
+        <v>11</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J14" si="2">I3/$I$2</f>
-        <v>0.96172248803827753</v>
+        <f t="shared" ref="J3:J14" si="1">I3/$I$14</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K14" si="3">I3/239</f>
-        <v>0.84100418410041844</v>
+        <f t="shared" ref="K3:K14" si="2">I3/237</f>
+        <v>4.6413502109704644E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N3" s="5">
         <f>SUM(H13:H14)</f>
@@ -2902,26 +2924,26 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I14" si="3">I3+H4</f>
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="J4" s="2">
+        <v>6.6985645933014357E-2</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="2"/>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82845188284518834</v>
+        <v>5.9071729957805907E-2</v>
       </c>
       <c r="M4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N4" s="4">
         <f>N3/N2</f>
@@ -2945,23 +2967,23 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="J5" s="2">
+        <v>7.6555023923444973E-2</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>0.93301435406698563</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.81589958158995812</v>
+        <v>6.7510548523206745E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2981,23 +3003,23 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="J6" s="2">
+        <v>8.6124401913875603E-2</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>0.92344497607655507</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.80753138075313813</v>
+        <v>7.5949367088607597E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3017,23 +3039,23 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="J7" s="2">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
-        <v>0.9138755980861244</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.79916317991631802</v>
+        <v>8.0168776371308023E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3053,23 +3075,23 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="J8" s="2">
+        <v>0.10047846889952153</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.79497907949790791</v>
+        <v>8.8607594936708861E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3089,23 +3111,23 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="J9" s="2">
+        <v>0.13397129186602871</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>0.8995215311004785</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.78661087866108792</v>
+        <v>0.11814345991561181</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3125,23 +3147,23 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="J10" s="2">
+        <v>0.14832535885167464</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
-        <v>0.86602870813397126</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.75732217573221761</v>
+        <v>0.13080168776371309</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3161,23 +3183,23 @@
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="J11" s="2">
+        <v>0.1674641148325359</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
-        <v>0.85167464114832536</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.74476987447698739</v>
+        <v>0.14767932489451477</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3197,23 +3219,23 @@
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="J12" s="2">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
-        <v>0.83253588516746413</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.72803347280334729</v>
+        <v>0.16033755274261605</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3233,23 +3255,23 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="I13">
-        <f>I14+H13</f>
-        <v>171</v>
-      </c>
-      <c r="J13" s="2">
+        <v>0.65550239234449759</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.71548117154811719</v>
+        <v>0.57805907172995785</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3269,23 +3291,23 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="I14">
-        <f>H14</f>
-        <v>72</v>
-      </c>
-      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>0.34449760765550241</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.30125523012552302</v>
+        <v>0.88185654008438819</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
